--- a/data/excel_files_reduced_clean/vehicle_data_reduced_clean.xlsx
+++ b/data/excel_files_reduced_clean/vehicle_data_reduced_clean.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF1330"/>
+  <dimension ref="A1:AF1329"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -666,51 +666,51 @@
         <v>2020</v>
       </c>
       <c r="U2">
-        <f>IF(E2=2,"Automatic","Manual")</f>
+        <f>IF(AVERAGE(E2:E2)=2,"Automatic","Manual")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>ROUNDDOWN(C2/5000,0)*5000</f>
+        <f>ROUNDDOWN(AVERAGE(C2:C2)/5000,0)*5000</f>
         <v/>
       </c>
       <c r="W2">
-        <f>IFERROR(INDEX(PriceBands!C:C,MATCH(V2,PriceBands!A:A,0)),"£30k+")</f>
+        <f>VLOOKUP(V2, PriceBands!A:C, 3, FALSE)</f>
         <v/>
       </c>
       <c r="X2">
-        <f>ROUNDDOWN(G2/50000,0)*50000</f>
+        <f>ROUNDDOWN(AVERAGE(G2:G2)/50000,0)*50000</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>IFERROR(INDEX(MileageBand!B:B,MATCH(VehicleData!X2,MileageBand!A:A,0)),"Extremely High")</f>
+        <f>VLOOKUP(VehicleData!X2, MileageBand!A:B, 2, FALSE)</f>
         <v/>
       </c>
       <c r="Z2">
-        <f>ROUND(P2/1000,1)</f>
+        <f>ROUND(AVERAGE(P2:P2)/1000,1)</f>
         <v/>
       </c>
       <c r="AA2">
-        <f>IF(W2="£30k+","N","Y")</f>
+        <f>IF(AVERAGE(V2:V2)=30000,0,1)</f>
         <v/>
       </c>
       <c r="AB2">
-        <f>IF(Y2="High","N","Y")</f>
+        <f>IF(AVERAGE(X2:X2)&gt;50000,0,1)</f>
         <v/>
       </c>
       <c r="AC2">
-        <f>IF(Z2&gt;2.5,"N","Y")</f>
+        <f>IF(AVERAGE(Z2:Z2)&gt;2.5,0,1)</f>
         <v/>
       </c>
       <c r="AD2">
-        <f>IF(T2&lt;2014,"N","Y")</f>
+        <f>IF(AVERAGE(T2:Z2)&lt;2014,0,1)</f>
         <v/>
       </c>
       <c r="AE2">
-        <f>IF(Q2&lt;30,"N","Y")</f>
+        <f>IF(AVERAGE(Q2:Q2)&lt;30,0,1)</f>
         <v/>
       </c>
       <c r="AF2">
-        <f>IF(AND(AA2="Y",AB2="Y",AC2="Y",AD2="Y",AE2="Y"),"Y","N")</f>
+        <f>IF(SUM(AA2:AE2)=5,1,0)</f>
         <v/>
       </c>
     </row>
@@ -801,51 +801,51 @@
         <v>2015</v>
       </c>
       <c r="U3">
-        <f>IF(E3=2,"Automatic","Manual")</f>
+        <f>IF(AVERAGE(E3:E3)=2,"Automatic","Manual")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>ROUNDDOWN(C3/5000,0)*5000</f>
+        <f>ROUNDDOWN(AVERAGE(C3:C3)/5000,0)*5000</f>
         <v/>
       </c>
       <c r="W3">
-        <f>IFERROR(INDEX(PriceBands!C:C,MATCH(V3,PriceBands!A:A,0)),"£30k+")</f>
+        <f>VLOOKUP(V3, PriceBands!A:C, 3, FALSE)</f>
         <v/>
       </c>
       <c r="X3">
-        <f>ROUNDDOWN(G3/50000,0)*50000</f>
+        <f>ROUNDDOWN(AVERAGE(G3:G3)/50000,0)*50000</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>IFERROR(INDEX(MileageBand!B:B,MATCH(VehicleData!X3,MileageBand!A:A,0)),"Extremely High")</f>
+        <f>VLOOKUP(VehicleData!X3, MileageBand!A:B, 2, FALSE)</f>
         <v/>
       </c>
       <c r="Z3">
-        <f>ROUND(P3/1000,1)</f>
+        <f>ROUND(AVERAGE(P3:P3)/1000,1)</f>
         <v/>
       </c>
       <c r="AA3">
-        <f>IF(W3="£30k+","N","Y")</f>
+        <f>IF(AVERAGE(V3:V3)=30000,0,1)</f>
         <v/>
       </c>
       <c r="AB3">
-        <f>IF(Y3="High","N","Y")</f>
+        <f>IF(AVERAGE(X3:X3)&gt;50000,0,1)</f>
         <v/>
       </c>
       <c r="AC3">
-        <f>IF(Z3&gt;2.5,"N","Y")</f>
+        <f>IF(AVERAGE(Z3:Z3)&gt;2.5,0,1)</f>
         <v/>
       </c>
       <c r="AD3">
-        <f>IF(T3&lt;2014,"N","Y")</f>
+        <f>IF(AVERAGE(T3:Z3)&lt;2014,0,1)</f>
         <v/>
       </c>
       <c r="AE3">
-        <f>IF(Q3&lt;30,"N","Y")</f>
+        <f>IF(AVERAGE(Q3:Q3)&lt;30,0,1)</f>
         <v/>
       </c>
       <c r="AF3">
-        <f>IF(AND(AA3="Y",AB3="Y",AC3="Y",AD3="Y",AE3="Y"),"Y","N")</f>
+        <f>IF(SUM(AA3:AE3)=5,1,0)</f>
         <v/>
       </c>
     </row>
@@ -2175,7 +2175,6 @@
     <row r="1327"/>
     <row r="1328"/>
     <row r="1329"/>
-    <row r="1330"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
